--- a/data/option_data/call/ABBV.xlsx
+++ b/data/option_data/call/ABBV.xlsx
@@ -579,7 +579,7 @@
         <v>75</v>
       </c>
       <c r="K2">
-        <v>0.5459029785156251</v>
+        <v>0.3955138574218751</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -605,19 +605,19 @@
         <v>61</v>
       </c>
       <c r="G3">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>45</v>
       </c>
       <c r="I3">
-        <v>61.85</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.5074512145996093</v>
+        <v>1E-05</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>120</v>
       </c>
       <c r="K4">
-        <v>0.4876760217285157</v>
+        <v>0.3520572607421875</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -681,19 +681,19 @@
         <v>54</v>
       </c>
       <c r="G5">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>50</v>
       </c>
       <c r="I5">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>0.461064959716797</v>
+        <v>1E-05</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -719,19 +719,19 @@
         <v>48.6</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>55</v>
       </c>
       <c r="I6">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6">
-        <v>0.4116269775390625</v>
+        <v>1E-05</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -757,19 +757,19 @@
         <v>46</v>
       </c>
       <c r="G7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>60</v>
       </c>
       <c r="I7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7">
-        <v>0.3665834826660156</v>
+        <v>1E-05</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -795,19 +795,19 @@
         <v>40.5</v>
       </c>
       <c r="G8">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>65</v>
       </c>
       <c r="I8">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8">
-        <v>0.3250189569091796</v>
+        <v>1E-05</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -833,19 +833,19 @@
         <v>34.61</v>
       </c>
       <c r="G9">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>70</v>
       </c>
       <c r="I9">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0.3035347967529296</v>
+        <v>1E-05</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.321295849609375</v>
+        <v>0.2628857891845704</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -906,22 +906,22 @@
         <v>75</v>
       </c>
       <c r="F11">
-        <v>30.75</v>
+        <v>32.84</v>
       </c>
       <c r="G11">
-        <v>29.9</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>75</v>
       </c>
       <c r="I11">
-        <v>33.5</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>0.2952340985107421</v>
+        <v>1E-05</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
@@ -944,22 +944,22 @@
         <v>77.5</v>
       </c>
       <c r="F12">
-        <v>29</v>
+        <v>30.7</v>
       </c>
       <c r="G12">
-        <v>27.3</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>77.5</v>
       </c>
       <c r="I12">
-        <v>30.95</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>0.2742992492675781</v>
+        <v>1E-05</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -985,19 +985,19 @@
         <v>27.17</v>
       </c>
       <c r="G13">
-        <v>24.7</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>80</v>
       </c>
       <c r="I13">
-        <v>28.85</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0.2657544128417969</v>
+        <v>1E-05</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -1020,22 +1020,22 @@
         <v>82.5</v>
       </c>
       <c r="F14">
-        <v>25</v>
+        <v>28.14</v>
       </c>
       <c r="G14">
-        <v>23.1</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>82.5</v>
       </c>
       <c r="I14">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0.2746044219970704</v>
+        <v>1E-05</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -1061,19 +1061,19 @@
         <v>22.75</v>
       </c>
       <c r="G15">
-        <v>21.65</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>85</v>
       </c>
       <c r="I15">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>0.2773814938354492</v>
+        <v>1E-05</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -1096,22 +1096,22 @@
         <v>87.5</v>
       </c>
       <c r="F16">
-        <v>21.56</v>
+        <v>24.76</v>
       </c>
       <c r="G16">
-        <v>20.15</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>87.5</v>
       </c>
       <c r="I16">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>0.26758544921875</v>
+        <v>1E-05</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -1137,19 +1137,19 @@
         <v>20.5</v>
       </c>
       <c r="G17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>90</v>
       </c>
       <c r="I17">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>3</v>
       </c>
       <c r="K17">
-        <v>0.2776866665649413</v>
+        <v>1E-05</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -1175,19 +1175,19 @@
         <v>18.45</v>
       </c>
       <c r="G18">
-        <v>18.15</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>92.5</v>
       </c>
       <c r="I18">
-        <v>21.5</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>0.2757335610961914</v>
+        <v>1E-05</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
@@ -1213,19 +1213,19 @@
         <v>16.95</v>
       </c>
       <c r="G19">
-        <v>16.6</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>95</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>40</v>
       </c>
       <c r="K19">
-        <v>0.2725902819824219</v>
+        <v>1E-05</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -1248,22 +1248,22 @@
         <v>97.5</v>
       </c>
       <c r="F20">
-        <v>17.29</v>
+        <v>18</v>
       </c>
       <c r="G20">
-        <v>14.65</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>97.5</v>
       </c>
       <c r="I20">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0.2683178637695312</v>
+        <v>1E-05</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
@@ -1286,22 +1286,22 @@
         <v>100</v>
       </c>
       <c r="F21">
-        <v>14.85</v>
+        <v>17</v>
       </c>
       <c r="G21">
-        <v>14.4</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>100</v>
       </c>
       <c r="I21">
-        <v>15.85</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K21">
-        <v>0.2422561126708984</v>
+        <v>1E-05</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
@@ -1324,25 +1324,25 @@
         <v>105</v>
       </c>
       <c r="F22">
-        <v>12.6</v>
+        <v>14.2</v>
       </c>
       <c r="G22">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>105</v>
       </c>
       <c r="I22">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K22">
-        <v>0.2495192236328125</v>
+        <v>1E-05</v>
       </c>
       <c r="L22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1362,22 +1362,22 @@
         <v>110</v>
       </c>
       <c r="F23">
-        <v>10.9</v>
+        <v>12.65</v>
       </c>
       <c r="G23">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>110</v>
       </c>
       <c r="I23">
-        <v>12.65</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K23">
-        <v>0.2604749246215821</v>
+        <v>0.007822421875000001</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -1403,19 +1403,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="G24">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>115</v>
       </c>
       <c r="I24">
-        <v>9.949999999999999</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>17</v>
       </c>
       <c r="K24">
-        <v>0.243720941772461</v>
+        <v>0.01563484375</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -1438,22 +1438,22 @@
         <v>120</v>
       </c>
       <c r="F25">
-        <v>8.74</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="G25">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>120</v>
       </c>
       <c r="I25">
-        <v>9.35</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K25">
-        <v>0.2597425100708008</v>
+        <v>0.01563484375</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -1476,22 +1476,22 @@
         <v>125</v>
       </c>
       <c r="F26">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="G26">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>125</v>
       </c>
       <c r="I26">
-        <v>8.75</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K26">
-        <v>0.272895454711914</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -1514,22 +1514,22 @@
         <v>130</v>
       </c>
       <c r="F27">
-        <v>6.45</v>
+        <v>6.62</v>
       </c>
       <c r="G27">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>130</v>
       </c>
       <c r="I27">
-        <v>7.55</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>0.272468212890625</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -1552,22 +1552,22 @@
         <v>135</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="G28">
-        <v>4.65</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>135</v>
       </c>
       <c r="I28">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="K28">
-        <v>0.2500380172729492</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>140</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>140</v>
       </c>
       <c r="I29">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29">
-        <v>0.2769847692871094</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -1631,19 +1631,19 @@
         <v>3.6</v>
       </c>
       <c r="G30">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>145</v>
       </c>
       <c r="I30">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30">
-        <v>0.2926096130371093</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -1666,22 +1666,22 @@
         <v>150</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>3.33</v>
       </c>
       <c r="G31">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>150</v>
       </c>
       <c r="I31">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>10</v>
       </c>
       <c r="K31">
-        <v>0.2657544128417969</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -1707,19 +1707,19 @@
         <v>2.6</v>
       </c>
       <c r="G32">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>155</v>
       </c>
       <c r="I32">
-        <v>2.99</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32">
-        <v>0.2565381964111328</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -1745,19 +1745,19 @@
         <v>2</v>
       </c>
       <c r="G33">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>160</v>
       </c>
       <c r="I33">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>3</v>
       </c>
       <c r="K33">
-        <v>0.2918161639404295</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -1780,22 +1780,22 @@
         <v>165</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="G34">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>165</v>
       </c>
       <c r="I34">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K34">
-        <v>0.2873911593627929</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>

--- a/data/option_data/call/ABBV.xlsx
+++ b/data/option_data/call/ABBV.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="45">
   <si>
     <t>symbol</t>
   </si>
@@ -506,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,22 +532,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -573,19 +570,16 @@
         <v>42.5</v>
       </c>
       <c r="I2">
-        <v>64.5</v>
+        <v>75</v>
       </c>
       <c r="J2">
-        <v>75</v>
-      </c>
-      <c r="K2">
-        <v>0.3955138574218751</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.3997862756347657</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -605,25 +599,22 @@
         <v>61</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>58.6</v>
       </c>
       <c r="H3">
         <v>45</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1E-05</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.4915822326660156</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -649,19 +640,16 @@
         <v>47.5</v>
       </c>
       <c r="I4">
-        <v>59.5</v>
+        <v>120</v>
       </c>
       <c r="J4">
-        <v>120</v>
-      </c>
-      <c r="K4">
-        <v>0.3520572607421875</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.3559634716796874</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -681,25 +669,22 @@
         <v>54</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>53.65</v>
       </c>
       <c r="H5">
         <v>50</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1E-05</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.4397028686523438</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -719,25 +704,22 @@
         <v>48.6</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="H6">
         <v>55</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>1E-05</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.3929504064941406</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -757,25 +739,22 @@
         <v>46</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>44.95</v>
       </c>
       <c r="H7">
         <v>60</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>1E-05</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.370550728149414</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -792,28 +771,25 @@
         <v>65</v>
       </c>
       <c r="F8">
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H8">
         <v>65</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>1E-05</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.3315496533203125</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -830,28 +806,25 @@
         <v>70</v>
       </c>
       <c r="F9">
-        <v>34.61</v>
+        <v>36.8</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>34.45</v>
       </c>
       <c r="H9">
         <v>70</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1E-05</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2912668530273437</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -877,19 +850,16 @@
         <v>72.5</v>
       </c>
       <c r="I10">
-        <v>36.2</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0.2628857891845704</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2641675146484375</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -906,28 +876,25 @@
         <v>75</v>
       </c>
       <c r="F11">
-        <v>32.84</v>
+        <v>32.29</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>30.25</v>
       </c>
       <c r="H11">
         <v>75</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11">
-        <v>1E-05</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2602613037109375</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -947,25 +914,22 @@
         <v>30.7</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>29.35</v>
       </c>
       <c r="H12">
         <v>77.5</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <v>1E-05</v>
-      </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.2298660998535156</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -985,25 +949,22 @@
         <v>27.17</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>27.1</v>
       </c>
       <c r="H13">
         <v>80</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1E-05</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2583387155151368</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1023,25 +984,22 @@
         <v>28.14</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>25.55</v>
       </c>
       <c r="H14">
         <v>82.5</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1E-05</v>
-      </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2491530163574219</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1058,28 +1016,25 @@
         <v>85</v>
       </c>
       <c r="F15">
-        <v>22.75</v>
+        <v>26.4</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="H15">
         <v>85</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1E-05</v>
-      </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2537306072998047</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1096,28 +1051,25 @@
         <v>87.5</v>
       </c>
       <c r="F16">
-        <v>24.76</v>
+        <v>23.3</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>22.75</v>
       </c>
       <c r="H16">
         <v>87.5</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16">
-        <v>1E-05</v>
-      </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2626416510009766</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1137,25 +1089,22 @@
         <v>20.5</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="H17">
         <v>90</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <v>1E-05</v>
-      </c>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2279129943847656</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1175,25 +1124,22 @@
         <v>18.45</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>19.05</v>
       </c>
       <c r="H18">
         <v>92.5</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1E-05</v>
-      </c>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2343216217041015</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1213,25 +1159,22 @@
         <v>16.95</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>16.85</v>
       </c>
       <c r="H19">
         <v>95</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J19">
-        <v>40</v>
-      </c>
-      <c r="K19">
-        <v>1E-05</v>
-      </c>
-      <c r="L19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2645642391967773</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1251,25 +1194,22 @@
         <v>18</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="H20">
         <v>97.5</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1E-05</v>
-      </c>
-      <c r="L20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2522352609252929</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1289,25 +1229,22 @@
         <v>17</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>15.15</v>
       </c>
       <c r="H21">
         <v>100</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J21">
-        <v>25</v>
-      </c>
-      <c r="K21">
-        <v>1E-05</v>
-      </c>
-      <c r="L21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2410964562988281</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1324,28 +1261,25 @@
         <v>105</v>
       </c>
       <c r="F22">
-        <v>14.2</v>
+        <v>14.23</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="H22">
         <v>105</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22">
-        <v>9</v>
-      </c>
-      <c r="K22">
-        <v>1E-05</v>
-      </c>
-      <c r="L22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.2399367999267578</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1362,28 +1296,25 @@
         <v>110</v>
       </c>
       <c r="F23">
-        <v>12.65</v>
+        <v>12.29</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="H23">
         <v>110</v>
       </c>
       <c r="I23">
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>0.261298890991211</v>
+      </c>
+      <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>5</v>
-      </c>
-      <c r="K23">
-        <v>0.007822421875000001</v>
-      </c>
-      <c r="L23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1403,25 +1334,22 @@
         <v>9.199999999999999</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>9.15</v>
       </c>
       <c r="H24">
         <v>115</v>
       </c>
       <c r="I24">
+        <v>17</v>
+      </c>
+      <c r="J24">
+        <v>0.2474745663452148</v>
+      </c>
+      <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>17</v>
-      </c>
-      <c r="K24">
-        <v>0.01563484375</v>
-      </c>
-      <c r="L24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1441,25 +1369,22 @@
         <v>9.039999999999999</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>8.15</v>
       </c>
       <c r="H25">
         <v>120</v>
       </c>
       <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>0.2777171838378906</v>
+      </c>
+      <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>4</v>
-      </c>
-      <c r="K25">
-        <v>0.01563484375</v>
-      </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1479,25 +1404,22 @@
         <v>7.5</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>6.85</v>
       </c>
       <c r="H26">
         <v>125</v>
       </c>
       <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>0.2660901028442383</v>
+      </c>
+      <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
-      <c r="K26">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1517,25 +1439,22 @@
         <v>6.62</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>5.95</v>
       </c>
       <c r="H27">
         <v>130</v>
       </c>
       <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0.2495192236328125</v>
+      </c>
+      <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1552,28 +1471,25 @@
         <v>135</v>
       </c>
       <c r="F28">
-        <v>5.6</v>
+        <v>6.05</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H28">
         <v>135</v>
       </c>
       <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>0.2474440490722656</v>
+      </c>
+      <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="J28">
-        <v>106</v>
-      </c>
-      <c r="K28">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1590,28 +1506,25 @@
         <v>140</v>
       </c>
       <c r="F29">
+        <v>4.4</v>
+      </c>
+      <c r="G29">
         <v>4.5</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
       </c>
       <c r="H29">
         <v>140</v>
       </c>
       <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0.2615735464477539</v>
+      </c>
+      <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-      <c r="K29">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1631,25 +1544,22 @@
         <v>3.6</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H30">
         <v>145</v>
       </c>
       <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0.2616956155395508</v>
+      </c>
+      <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1669,25 +1579,22 @@
         <v>3.33</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="H31">
         <v>150</v>
       </c>
       <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>0.2706066592407227</v>
+      </c>
+      <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="J31">
-        <v>10</v>
-      </c>
-      <c r="K31">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1707,25 +1614,22 @@
         <v>2.6</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="H32">
         <v>155</v>
       </c>
       <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0.2884897811889647</v>
+      </c>
+      <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1745,25 +1649,22 @@
         <v>2</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="H33">
         <v>160</v>
       </c>
       <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>0.2965463412475585</v>
+      </c>
+      <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="J33">
-        <v>3</v>
-      </c>
-      <c r="K33">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1783,21 +1684,18 @@
         <v>2.22</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H34">
         <v>165</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J34">
-        <v>20</v>
-      </c>
-      <c r="K34">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L34" t="b">
+        <v>0.2591016473388672</v>
+      </c>
+      <c r="K34" t="b">
         <v>0</v>
       </c>
     </row>
